--- a/datasets/datasets_limpios/detalle_ventas_limpio.xlsx
+++ b/datasets/datasets_limpios/detalle_ventas_limpio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F344"/>
+  <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,21 +492,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aceitunas Negras 200g</t>
+          <t>Medialunas de Manteca</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2394</v>
+        <v>2069</v>
       </c>
       <c r="F3" t="n">
-        <v>11970</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="4">
@@ -558,21 +558,21 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Medialunas de Manteca</t>
+          <t>Hamburguesas Congeladas x4</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>2069</v>
+        <v>2420</v>
       </c>
       <c r="F6" t="n">
-        <v>2069</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="7">
@@ -580,21 +580,21 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hamburguesas Congeladas x4</t>
+          <t>Aceitunas Negras 200g</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>2420</v>
+        <v>2394</v>
       </c>
       <c r="F7" t="n">
-        <v>9680</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="8">
@@ -602,21 +602,21 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yerba Mate Suave 1kg</t>
+          <t>Pepsi 1.5L</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>3878</v>
+        <v>4973</v>
       </c>
       <c r="F8" t="n">
-        <v>7756</v>
+        <v>9946</v>
       </c>
     </row>
     <row r="9">
@@ -624,21 +624,21 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pepsi 1.5L</t>
+          <t>Yerba Mate Suave 1kg</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>4973</v>
+        <v>3878</v>
       </c>
       <c r="F9" t="n">
-        <v>9946</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="10">
@@ -778,21 +778,21 @@
         <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Queso Untable 190g</t>
+          <t>Chicle Menta</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1830</v>
+        <v>3612</v>
       </c>
       <c r="F16" t="n">
-        <v>1830</v>
+        <v>14448</v>
       </c>
     </row>
     <row r="17">
@@ -800,21 +800,21 @@
         <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chicle Menta</t>
+          <t>Queso Untable 190g</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>3612</v>
+        <v>1830</v>
       </c>
       <c r="F17" t="n">
-        <v>14448</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="18">
@@ -844,21 +844,21 @@
         <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lavandina 1L</t>
+          <t>Queso Rallado 150g</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>1664</v>
+        <v>3444</v>
       </c>
       <c r="F19" t="n">
-        <v>8320</v>
+        <v>13776</v>
       </c>
     </row>
     <row r="20">
@@ -866,21 +866,21 @@
         <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Queso Rallado 150g</t>
+          <t>Lavandina 1L</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>3444</v>
+        <v>1664</v>
       </c>
       <c r="F20" t="n">
-        <v>13776</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="21">
@@ -954,21 +954,21 @@
         <v>10</v>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Trapo de Piso</t>
+          <t>Mermelada de Durazno 400g</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>4854</v>
+        <v>3196</v>
       </c>
       <c r="F24" t="n">
-        <v>19416</v>
+        <v>9588</v>
       </c>
     </row>
     <row r="25">
@@ -976,21 +976,21 @@
         <v>10</v>
       </c>
       <c r="B25" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mermelada de Durazno 400g</t>
+          <t>Stevia 100 sobres</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>3196</v>
+        <v>3848</v>
       </c>
       <c r="F25" t="n">
-        <v>9588</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="26">
@@ -998,21 +998,21 @@
         <v>10</v>
       </c>
       <c r="B26" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Stevia 100 sobres</t>
+          <t>Trapo de Piso</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>3848</v>
+        <v>4854</v>
       </c>
       <c r="F26" t="n">
-        <v>3848</v>
+        <v>19416</v>
       </c>
     </row>
     <row r="27">
@@ -1042,21 +1042,21 @@
         <v>11</v>
       </c>
       <c r="B28" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cerveza Rubia 1L</t>
+          <t>Papas Fritas Clásicas 100g</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>2423</v>
+        <v>936</v>
       </c>
       <c r="F28" t="n">
-        <v>4846</v>
+        <v>936</v>
       </c>
     </row>
     <row r="29">
@@ -1064,21 +1064,21 @@
         <v>11</v>
       </c>
       <c r="B29" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Papas Fritas Clásicas 100g</t>
+          <t>Cerveza Rubia 1L</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>936</v>
+        <v>2423</v>
       </c>
       <c r="F29" t="n">
-        <v>936</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="30">
@@ -1086,21 +1086,21 @@
         <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ron 700ml</t>
+          <t>Mermelada de Frutilla 400g</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>3876</v>
+        <v>1584</v>
       </c>
       <c r="F30" t="n">
-        <v>7752</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="31">
@@ -1152,21 +1152,21 @@
         <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sopa Instantánea Pollo</t>
+          <t>Ron 700ml</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>1679</v>
+        <v>3876</v>
       </c>
       <c r="F33" t="n">
-        <v>5037</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="34">
@@ -1174,21 +1174,21 @@
         <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mermelada de Frutilla 400g</t>
+          <t>Sopa Instantánea Pollo</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>1584</v>
+        <v>1679</v>
       </c>
       <c r="F34" t="n">
-        <v>6336</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="35">
@@ -1196,21 +1196,21 @@
         <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sopa Instantánea Pollo</t>
+          <t>Té Verde 20 saquitos</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1679</v>
+        <v>2383</v>
       </c>
       <c r="F35" t="n">
-        <v>1679</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="36">
@@ -1240,21 +1240,21 @@
         <v>13</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Té Verde 20 saquitos</t>
+          <t>Sopa Instantánea Pollo</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>2383</v>
+        <v>1679</v>
       </c>
       <c r="F37" t="n">
-        <v>2383</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="38">
@@ -1284,21 +1284,21 @@
         <v>14</v>
       </c>
       <c r="B39" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ron 700ml</t>
+          <t>Mermelada de Frutilla 400g</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>3876</v>
+        <v>1584</v>
       </c>
       <c r="F39" t="n">
-        <v>19380</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="40">
@@ -1306,21 +1306,21 @@
         <v>14</v>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mermelada de Frutilla 400g</t>
+          <t>Ron 700ml</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>1584</v>
+        <v>3876</v>
       </c>
       <c r="F40" t="n">
-        <v>4752</v>
+        <v>19380</v>
       </c>
     </row>
     <row r="41">
@@ -1394,21 +1394,21 @@
         <v>17</v>
       </c>
       <c r="B44" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aceitunas Verdes 200g</t>
+          <t>Lentejas Secas 500g</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>2520</v>
+        <v>3036</v>
       </c>
       <c r="F44" t="n">
-        <v>12600</v>
+        <v>15180</v>
       </c>
     </row>
     <row r="45">
@@ -1416,21 +1416,21 @@
         <v>17</v>
       </c>
       <c r="B45" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lentejas Secas 500g</t>
+          <t>Whisky 750ml</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>3036</v>
+        <v>2953</v>
       </c>
       <c r="F45" t="n">
-        <v>15180</v>
+        <v>8859</v>
       </c>
     </row>
     <row r="46">
@@ -1438,21 +1438,21 @@
         <v>17</v>
       </c>
       <c r="B46" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Whisky 750ml</t>
+          <t>Aceitunas Verdes 200g</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>2953</v>
+        <v>2520</v>
       </c>
       <c r="F46" t="n">
-        <v>8859</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="47">
@@ -1460,21 +1460,21 @@
         <v>18</v>
       </c>
       <c r="B47" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chocolate con Leche 100g</t>
+          <t>Fanta Naranja 1.5L</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>1255</v>
+        <v>2033</v>
       </c>
       <c r="F47" t="n">
-        <v>2510</v>
+        <v>10165</v>
       </c>
     </row>
     <row r="48">
@@ -1482,21 +1482,21 @@
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fanta Naranja 1.5L</t>
+          <t>Leche Descremada 1L</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>2033</v>
+        <v>2538</v>
       </c>
       <c r="F48" t="n">
-        <v>10165</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="49">
@@ -1504,21 +1504,21 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galletitas Chocolate</t>
+          <t>Medialunas de Manteca</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>1305</v>
+        <v>2069</v>
       </c>
       <c r="F49" t="n">
-        <v>2610</v>
+        <v>10345</v>
       </c>
     </row>
     <row r="50">
@@ -1526,21 +1526,21 @@
         <v>18</v>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Leche Descremada 1L</t>
+          <t>Galletitas Chocolate</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>2538</v>
+        <v>1305</v>
       </c>
       <c r="F50" t="n">
-        <v>7614</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="51">
@@ -1548,21 +1548,21 @@
         <v>18</v>
       </c>
       <c r="B51" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Medialunas de Manteca</t>
+          <t>Chocolate con Leche 100g</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>2069</v>
+        <v>1255</v>
       </c>
       <c r="F51" t="n">
-        <v>10345</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="52">
@@ -1592,21 +1592,21 @@
         <v>19</v>
       </c>
       <c r="B53" t="n">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Desengrasante 500ml</t>
+          <t>Granola 250g</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>2843</v>
+        <v>4337</v>
       </c>
       <c r="F53" t="n">
-        <v>8529</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="54">
@@ -1614,21 +1614,21 @@
         <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Granola 250g</t>
+          <t>Desengrasante 500ml</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>4337</v>
+        <v>2843</v>
       </c>
       <c r="F54" t="n">
-        <v>13011</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="55">
@@ -1658,21 +1658,21 @@
         <v>21</v>
       </c>
       <c r="B56" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pizza Congelada Muzzarella</t>
+          <t>Barrita de Cereal 30g</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>4286</v>
+        <v>4430</v>
       </c>
       <c r="F56" t="n">
-        <v>21430</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="57">
@@ -1680,21 +1680,21 @@
         <v>21</v>
       </c>
       <c r="B57" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Barrita de Cereal 30g</t>
+          <t>Pizza Congelada Muzzarella</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>4430</v>
+        <v>4286</v>
       </c>
       <c r="F57" t="n">
-        <v>4430</v>
+        <v>21430</v>
       </c>
     </row>
     <row r="58">
@@ -1724,21 +1724,21 @@
         <v>22</v>
       </c>
       <c r="B59" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Papas Fritas Clásicas 100g</t>
+          <t>Galletitas Chocolate</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>936</v>
+        <v>1305</v>
       </c>
       <c r="F59" t="n">
-        <v>2808</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="60">
@@ -1746,21 +1746,21 @@
         <v>22</v>
       </c>
       <c r="B60" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galletitas Chocolate</t>
+          <t>Papas Fritas Clásicas 100g</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>1305</v>
+        <v>936</v>
       </c>
       <c r="F60" t="n">
-        <v>5220</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="61">
@@ -1812,21 +1812,21 @@
         <v>24</v>
       </c>
       <c r="B63" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Desodorante Aerosol</t>
+          <t>Helado Chocolate 1L</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>4690</v>
+        <v>1215</v>
       </c>
       <c r="F63" t="n">
-        <v>9380</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="64">
@@ -1834,21 +1834,21 @@
         <v>24</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Helado Chocolate 1L</t>
+          <t>Desodorante Aerosol</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>1215</v>
+        <v>4690</v>
       </c>
       <c r="F64" t="n">
-        <v>6075</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="65">
@@ -1878,21 +1878,21 @@
         <v>25</v>
       </c>
       <c r="B66" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mascarilla Capilar</t>
+          <t>Ron 700ml</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1581</v>
+        <v>3876</v>
       </c>
       <c r="F66" t="n">
-        <v>7905</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="67">
@@ -1900,21 +1900,21 @@
         <v>25</v>
       </c>
       <c r="B67" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ron 700ml</t>
+          <t>Mascarilla Capilar</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>3876</v>
+        <v>1581</v>
       </c>
       <c r="F67" t="n">
-        <v>3876</v>
+        <v>7905</v>
       </c>
     </row>
     <row r="68">
@@ -2010,21 +2010,21 @@
         <v>28</v>
       </c>
       <c r="B72" t="n">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Whisky 750ml</t>
+          <t>Queso Rallado 150g</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>2953</v>
+        <v>3444</v>
       </c>
       <c r="F72" t="n">
-        <v>2953</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="73">
@@ -2032,21 +2032,21 @@
         <v>28</v>
       </c>
       <c r="B73" t="n">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Desodorante Aerosol</t>
+          <t>Alfajor Simple</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E73" t="n">
-        <v>4690</v>
+        <v>2502</v>
       </c>
       <c r="F73" t="n">
-        <v>9380</v>
+        <v>12510</v>
       </c>
     </row>
     <row r="74">
@@ -2076,21 +2076,21 @@
         <v>28</v>
       </c>
       <c r="B75" t="n">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Queso Rallado 150g</t>
+          <t>Whisky 750ml</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>3444</v>
+        <v>2953</v>
       </c>
       <c r="F75" t="n">
-        <v>6888</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="76">
@@ -2098,21 +2098,21 @@
         <v>28</v>
       </c>
       <c r="B76" t="n">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Alfajor Simple</t>
+          <t>Desodorante Aerosol</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>2502</v>
+        <v>4690</v>
       </c>
       <c r="F76" t="n">
-        <v>12510</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="77">
@@ -2120,21 +2120,21 @@
         <v>29</v>
       </c>
       <c r="B77" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Caramelos Masticables</t>
+          <t>Alfajor Simple</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>4752</v>
+        <v>2502</v>
       </c>
       <c r="F77" t="n">
-        <v>4752</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="78">
@@ -2164,21 +2164,21 @@
         <v>29</v>
       </c>
       <c r="B79" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Vodka 700ml</t>
+          <t>Caramelos Masticables</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>508</v>
+        <v>4752</v>
       </c>
       <c r="F79" t="n">
-        <v>2032</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="80">
@@ -2186,21 +2186,21 @@
         <v>29</v>
       </c>
       <c r="B80" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Alfajor Simple</t>
+          <t>Cerveza Negra 1L</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>2502</v>
+        <v>1533</v>
       </c>
       <c r="F80" t="n">
-        <v>5004</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="81">
@@ -2208,21 +2208,21 @@
         <v>29</v>
       </c>
       <c r="B81" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cerveza Negra 1L</t>
+          <t>Vodka 700ml</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>1533</v>
+        <v>508</v>
       </c>
       <c r="F81" t="n">
-        <v>1533</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="82">
@@ -2230,21 +2230,21 @@
         <v>30</v>
       </c>
       <c r="B82" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Harina de Trigo 1kg</t>
+          <t>Jugo de Manzana 1L</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>2512</v>
+        <v>3269</v>
       </c>
       <c r="F82" t="n">
-        <v>10048</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="83">
@@ -2252,21 +2252,21 @@
         <v>30</v>
       </c>
       <c r="B83" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Verduras Congeladas Mix</t>
+          <t>Harina de Trigo 1kg</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>4289</v>
+        <v>2512</v>
       </c>
       <c r="F83" t="n">
-        <v>12867</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="84">
@@ -2274,21 +2274,21 @@
         <v>30</v>
       </c>
       <c r="B84" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Aceitunas Negras 200g</t>
+          <t>Verduras Congeladas Mix</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>2394</v>
+        <v>4289</v>
       </c>
       <c r="F84" t="n">
-        <v>9576</v>
+        <v>12867</v>
       </c>
     </row>
     <row r="85">
@@ -2296,21 +2296,21 @@
         <v>30</v>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jugo de Manzana 1L</t>
+          <t>Aceitunas Negras 200g</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>3269</v>
+        <v>2394</v>
       </c>
       <c r="F85" t="n">
-        <v>3269</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="86">
@@ -2318,21 +2318,21 @@
         <v>31</v>
       </c>
       <c r="B86" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Crema Dental 90g</t>
+          <t>Queso Azul 150g</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>2512</v>
+        <v>1645</v>
       </c>
       <c r="F86" t="n">
-        <v>10048</v>
+        <v>8225</v>
       </c>
     </row>
     <row r="87">
@@ -2362,21 +2362,21 @@
         <v>31</v>
       </c>
       <c r="B88" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Queso Azul 150g</t>
+          <t>Crema Dental 90g</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E88" t="n">
-        <v>1645</v>
+        <v>2512</v>
       </c>
       <c r="F88" t="n">
-        <v>8225</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="89">
@@ -2384,21 +2384,21 @@
         <v>32</v>
       </c>
       <c r="B89" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ron 700ml</t>
+          <t>Queso Cremoso 500g</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>3876</v>
+        <v>4834</v>
       </c>
       <c r="F89" t="n">
-        <v>19380</v>
+        <v>14502</v>
       </c>
     </row>
     <row r="90">
@@ -2406,21 +2406,21 @@
         <v>32</v>
       </c>
       <c r="B90" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Lavandina 1L</t>
+          <t>Barrita de Cereal 30g</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>1664</v>
+        <v>4430</v>
       </c>
       <c r="F90" t="n">
-        <v>6656</v>
+        <v>13290</v>
       </c>
     </row>
     <row r="91">
@@ -2428,21 +2428,21 @@
         <v>32</v>
       </c>
       <c r="B91" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g</t>
+          <t>Lavandina 1L</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>4834</v>
+        <v>1664</v>
       </c>
       <c r="F91" t="n">
-        <v>14502</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="92">
@@ -2450,21 +2450,21 @@
         <v>32</v>
       </c>
       <c r="B92" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Barrita de Cereal 30g</t>
+          <t>Ron 700ml</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>4430</v>
+        <v>3876</v>
       </c>
       <c r="F92" t="n">
-        <v>13290</v>
+        <v>19380</v>
       </c>
     </row>
     <row r="93">
@@ -2516,21 +2516,21 @@
         <v>33</v>
       </c>
       <c r="B95" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Trapo de Piso</t>
+          <t>Desodorante Aerosol</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>4854</v>
+        <v>4690</v>
       </c>
       <c r="F95" t="n">
-        <v>4854</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="96">
@@ -2538,21 +2538,21 @@
         <v>33</v>
       </c>
       <c r="B96" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Desodorante Aerosol</t>
+          <t>Trapo de Piso</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>4690</v>
+        <v>4854</v>
       </c>
       <c r="F96" t="n">
-        <v>9380</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="97">
@@ -2604,21 +2604,21 @@
         <v>35</v>
       </c>
       <c r="B99" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cepillo de Dientes</t>
+          <t>Helado de Frutilla 1L</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2142</v>
+        <v>1981</v>
       </c>
       <c r="F99" t="n">
-        <v>6426</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="100">
@@ -2626,21 +2626,21 @@
         <v>35</v>
       </c>
       <c r="B100" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Helado de Frutilla 1L</t>
+          <t>Caldo Concentrado Carne</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E100" t="n">
-        <v>1981</v>
+        <v>2570</v>
       </c>
       <c r="F100" t="n">
-        <v>3962</v>
+        <v>12850</v>
       </c>
     </row>
     <row r="101">
@@ -2648,21 +2648,21 @@
         <v>35</v>
       </c>
       <c r="B101" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Caldo Concentrado Carne</t>
+          <t>Cepillo de Dientes</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>2570</v>
+        <v>2142</v>
       </c>
       <c r="F101" t="n">
-        <v>12850</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="102">
@@ -2670,21 +2670,21 @@
         <v>36</v>
       </c>
       <c r="B102" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Azúcar 1kg</t>
+          <t>Porotos Negros 500g</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>727</v>
+        <v>4462</v>
       </c>
       <c r="F102" t="n">
-        <v>2908</v>
+        <v>8924</v>
       </c>
     </row>
     <row r="103">
@@ -2692,21 +2692,21 @@
         <v>36</v>
       </c>
       <c r="B103" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Porotos Negros 500g</t>
+          <t>Azúcar 1kg</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>4462</v>
+        <v>727</v>
       </c>
       <c r="F103" t="n">
-        <v>8924</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="104">
@@ -2736,21 +2736,21 @@
         <v>38</v>
       </c>
       <c r="B105" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Stevia 100 sobres</t>
+          <t>Agua Mineral 500ml</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>3848</v>
+        <v>4777</v>
       </c>
       <c r="F105" t="n">
-        <v>19240</v>
+        <v>14331</v>
       </c>
     </row>
     <row r="106">
@@ -2780,21 +2780,21 @@
         <v>38</v>
       </c>
       <c r="B107" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cerveza Rubia 1L</t>
+          <t>Stevia 100 sobres</t>
         </is>
       </c>
       <c r="D107" t="n">
         <v>5</v>
       </c>
       <c r="E107" t="n">
-        <v>2423</v>
+        <v>3848</v>
       </c>
       <c r="F107" t="n">
-        <v>12115</v>
+        <v>19240</v>
       </c>
     </row>
     <row r="108">
@@ -2802,21 +2802,21 @@
         <v>38</v>
       </c>
       <c r="B108" t="n">
+        <v>65</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Cerveza Rubia 1L</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
         <v>5</v>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Agua Mineral 500ml</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>3</v>
-      </c>
       <c r="E108" t="n">
-        <v>4777</v>
+        <v>2423</v>
       </c>
       <c r="F108" t="n">
-        <v>14331</v>
+        <v>12115</v>
       </c>
     </row>
     <row r="109">
@@ -2824,21 +2824,21 @@
         <v>39</v>
       </c>
       <c r="B109" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Arroz Largo Fino 1kg</t>
+          <t>Medialunas de Manteca</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>2979</v>
+        <v>2069</v>
       </c>
       <c r="F109" t="n">
-        <v>11916</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="110">
@@ -2846,21 +2846,21 @@
         <v>39</v>
       </c>
       <c r="B110" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Medialunas de Manteca</t>
+          <t>Arroz Largo Fino 1kg</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>2069</v>
+        <v>2979</v>
       </c>
       <c r="F110" t="n">
-        <v>4138</v>
+        <v>11916</v>
       </c>
     </row>
     <row r="111">
@@ -2934,21 +2934,21 @@
         <v>41</v>
       </c>
       <c r="B114" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sal Fina 500g</t>
+          <t>Leche Descremada 1L</t>
         </is>
       </c>
       <c r="D114" t="n">
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1745</v>
+        <v>2538</v>
       </c>
       <c r="F114" t="n">
-        <v>1745</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="115">
@@ -2956,21 +2956,21 @@
         <v>41</v>
       </c>
       <c r="B115" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Leche Descremada 1L</t>
+          <t>Sal Fina 500g</t>
         </is>
       </c>
       <c r="D115" t="n">
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>2538</v>
+        <v>1745</v>
       </c>
       <c r="F115" t="n">
-        <v>2538</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="116">
@@ -2978,21 +2978,21 @@
         <v>42</v>
       </c>
       <c r="B116" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Garbanzos 500g</t>
+          <t>Papas Fritas Onduladas 100g</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>2939</v>
+        <v>1868</v>
       </c>
       <c r="F116" t="n">
-        <v>8817</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="117">
@@ -3000,21 +3000,21 @@
         <v>42</v>
       </c>
       <c r="B117" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Papas Fritas Onduladas 100g</t>
+          <t>Garbanzos 500g</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>1868</v>
+        <v>2939</v>
       </c>
       <c r="F117" t="n">
-        <v>1868</v>
+        <v>8817</v>
       </c>
     </row>
     <row r="118">
@@ -3110,21 +3110,21 @@
         <v>44</v>
       </c>
       <c r="B122" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Porotos Negros 500g</t>
+          <t>Garbanzos 500g</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>4462</v>
+        <v>2939</v>
       </c>
       <c r="F122" t="n">
-        <v>4462</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="123">
@@ -3132,21 +3132,21 @@
         <v>44</v>
       </c>
       <c r="B123" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Garbanzos 500g</t>
+          <t>Porotos Negros 500g</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>2939</v>
+        <v>4462</v>
       </c>
       <c r="F123" t="n">
-        <v>5878</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="124">
@@ -3220,21 +3220,21 @@
         <v>45</v>
       </c>
       <c r="B127" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sopa Instantánea Pollo</t>
+          <t>Detergente Líquido 750ml</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>1679</v>
+        <v>2582</v>
       </c>
       <c r="F127" t="n">
-        <v>6716</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="128">
@@ -3242,21 +3242,21 @@
         <v>45</v>
       </c>
       <c r="B128" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Desengrasante 500ml</t>
+          <t>Sopa Instantánea Pollo</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E128" t="n">
-        <v>2843</v>
+        <v>1679</v>
       </c>
       <c r="F128" t="n">
-        <v>2843</v>
+        <v>6716</v>
       </c>
     </row>
     <row r="129">
@@ -3264,21 +3264,21 @@
         <v>45</v>
       </c>
       <c r="B129" t="n">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Detergente Líquido 750ml</t>
+          <t>Desengrasante 500ml</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>2582</v>
+        <v>2843</v>
       </c>
       <c r="F129" t="n">
-        <v>5164</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="130">
@@ -3308,21 +3308,21 @@
         <v>47</v>
       </c>
       <c r="B131" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Salsa de Tomate 500g</t>
+          <t>Jugo de Naranja 1L</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E131" t="n">
-        <v>887</v>
+        <v>4170</v>
       </c>
       <c r="F131" t="n">
-        <v>4435</v>
+        <v>12510</v>
       </c>
     </row>
     <row r="132">
@@ -3330,21 +3330,21 @@
         <v>47</v>
       </c>
       <c r="B132" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Jugo de Naranja 1L</t>
+          <t>Salsa de Tomate 500g</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>4170</v>
+        <v>887</v>
       </c>
       <c r="F132" t="n">
-        <v>12510</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="133">
@@ -3352,21 +3352,21 @@
         <v>48</v>
       </c>
       <c r="B133" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Fernet 750ml</t>
+          <t>Jabón de Tocador</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>4061</v>
+        <v>1592</v>
       </c>
       <c r="F133" t="n">
-        <v>4061</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="134">
@@ -3374,21 +3374,21 @@
         <v>48</v>
       </c>
       <c r="B134" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Jabón de Tocador</t>
+          <t>Servilletas x100</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>1592</v>
+        <v>4520</v>
       </c>
       <c r="F134" t="n">
-        <v>7960</v>
+        <v>18080</v>
       </c>
     </row>
     <row r="135">
@@ -3396,21 +3396,21 @@
         <v>48</v>
       </c>
       <c r="B135" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Servilletas x100</t>
+          <t>Fernet 750ml</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>4520</v>
+        <v>4061</v>
       </c>
       <c r="F135" t="n">
-        <v>18080</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="136">
@@ -3418,21 +3418,21 @@
         <v>49</v>
       </c>
       <c r="B136" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Chicle Menta</t>
+          <t>Queso Rallado 150g</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>3612</v>
+        <v>3444</v>
       </c>
       <c r="F136" t="n">
-        <v>7224</v>
+        <v>10332</v>
       </c>
     </row>
     <row r="137">
@@ -3470,13 +3470,13 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E138" t="n">
         <v>3612</v>
       </c>
       <c r="F138" t="n">
-        <v>14448</v>
+        <v>21672</v>
       </c>
     </row>
     <row r="139">
@@ -3484,43 +3484,43 @@
         <v>49</v>
       </c>
       <c r="B139" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Queso Rallado 150g</t>
+          <t>Jugo en Polvo Naranja</t>
         </is>
       </c>
       <c r="D139" t="n">
         <v>3</v>
       </c>
       <c r="E139" t="n">
-        <v>3444</v>
+        <v>1856</v>
       </c>
       <c r="F139" t="n">
-        <v>10332</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B140" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Jugo en Polvo Naranja</t>
+          <t>Yerba Mate Intensa 1kg</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E140" t="n">
-        <v>1856</v>
+        <v>4883</v>
       </c>
       <c r="F140" t="n">
-        <v>5568</v>
+        <v>9766</v>
       </c>
     </row>
     <row r="141">
@@ -3528,21 +3528,21 @@
         <v>50</v>
       </c>
       <c r="B141" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Yerba Mate Intensa 1kg</t>
+          <t>Chocolate Amargo 100g</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141" t="n">
-        <v>4883</v>
+        <v>2234</v>
       </c>
       <c r="F141" t="n">
-        <v>9766</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="142">
@@ -3594,65 +3594,65 @@
         <v>50</v>
       </c>
       <c r="B144" t="n">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Chocolate Amargo 100g</t>
+          <t>Desodorante Aerosol</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E144" t="n">
-        <v>2234</v>
+        <v>4690</v>
       </c>
       <c r="F144" t="n">
-        <v>6702</v>
+        <v>18760</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B145" t="n">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Desodorante Aerosol</t>
+          <t>Mix de Frutos Secos 200g</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>4690</v>
+        <v>3409</v>
       </c>
       <c r="F145" t="n">
-        <v>18760</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B146" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Mix de Frutos Secos 200g</t>
+          <t>Yerba Mate Suave 1kg</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E146" t="n">
-        <v>3409</v>
+        <v>3878</v>
       </c>
       <c r="F146" t="n">
-        <v>3409</v>
+        <v>15512</v>
       </c>
     </row>
     <row r="147">
@@ -3660,21 +3660,21 @@
         <v>52</v>
       </c>
       <c r="B147" t="n">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Queso Untable 190g</t>
+          <t>Mermelada de Frutilla 400g</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147" t="n">
-        <v>1830</v>
+        <v>1584</v>
       </c>
       <c r="F147" t="n">
-        <v>3660</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="148">
@@ -3682,21 +3682,21 @@
         <v>52</v>
       </c>
       <c r="B148" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Yerba Mate Suave 1kg</t>
+          <t>Aceitunas Verdes 200g</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>3878</v>
+        <v>2520</v>
       </c>
       <c r="F148" t="n">
-        <v>15512</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="149">
@@ -3704,65 +3704,65 @@
         <v>52</v>
       </c>
       <c r="B149" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Aceitunas Verdes 200g</t>
+          <t>Queso Untable 190g</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>2520</v>
+        <v>1830</v>
       </c>
       <c r="F149" t="n">
-        <v>12600</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B150" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Mermelada de Frutilla 400g</t>
+          <t>Papas Fritas Clásicas 100g</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>1584</v>
+        <v>936</v>
       </c>
       <c r="F150" t="n">
-        <v>4752</v>
+        <v>936</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B151" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Papas Fritas Clásicas 100g</t>
+          <t>Energética Nitro 500ml</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151" t="n">
-        <v>936</v>
+        <v>4218</v>
       </c>
       <c r="F151" t="n">
-        <v>936</v>
+        <v>12654</v>
       </c>
     </row>
     <row r="152">
@@ -3770,21 +3770,21 @@
         <v>54</v>
       </c>
       <c r="B152" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Cerveza Rubia 1L</t>
+          <t>Queso Rallado 150g</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>2423</v>
+        <v>3444</v>
       </c>
       <c r="F152" t="n">
-        <v>2423</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="153">
@@ -3792,21 +3792,21 @@
         <v>54</v>
       </c>
       <c r="B153" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Queso Rallado 150g</t>
+          <t>Cerveza Rubia 1L</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>3444</v>
+        <v>2423</v>
       </c>
       <c r="F153" t="n">
-        <v>6888</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="154">
@@ -3833,68 +3833,68 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B155" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Energética Nitro 500ml</t>
+          <t>Helado Vainilla 1L</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>4218</v>
+        <v>469</v>
       </c>
       <c r="F155" t="n">
-        <v>12654</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B156" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Helado Vainilla 1L</t>
+          <t>Queso Rallado 150g</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E156" t="n">
-        <v>469</v>
+        <v>3444</v>
       </c>
       <c r="F156" t="n">
-        <v>1876</v>
+        <v>17220</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B157" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Queso Rallado 150g</t>
+          <t>Yerba Mate Suave 1kg</t>
         </is>
       </c>
       <c r="D157" t="n">
         <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>3444</v>
+        <v>3878</v>
       </c>
       <c r="F157" t="n">
-        <v>17220</v>
+        <v>19390</v>
       </c>
     </row>
     <row r="158">
@@ -3946,21 +3946,21 @@
         <v>57</v>
       </c>
       <c r="B160" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Yerba Mate Suave 1kg</t>
+          <t>Pizza Congelada Muzzarella</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E160" t="n">
-        <v>3878</v>
+        <v>4286</v>
       </c>
       <c r="F160" t="n">
-        <v>19390</v>
+        <v>12858</v>
       </c>
     </row>
     <row r="161">
@@ -3968,43 +3968,43 @@
         <v>57</v>
       </c>
       <c r="B161" t="n">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Pizza Congelada Muzzarella</t>
+          <t>Desengrasante 500ml</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>4286</v>
+        <v>2843</v>
       </c>
       <c r="F161" t="n">
-        <v>12858</v>
+        <v>11372</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B162" t="n">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Desengrasante 500ml</t>
+          <t>Café Molido 250g</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>2843</v>
+        <v>2053</v>
       </c>
       <c r="F162" t="n">
-        <v>11372</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="163">
@@ -4031,24 +4031,24 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B164" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Café Molido 250g</t>
+          <t>Energética Nitro 500ml</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>2053</v>
+        <v>4218</v>
       </c>
       <c r="F164" t="n">
-        <v>2053</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="165">
@@ -4078,43 +4078,43 @@
         <v>59</v>
       </c>
       <c r="B166" t="n">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Energética Nitro 500ml</t>
+          <t>Limpiavidrios 500ml</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E166" t="n">
-        <v>4218</v>
+        <v>872</v>
       </c>
       <c r="F166" t="n">
-        <v>8436</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B167" t="n">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Limpiavidrios 500ml</t>
+          <t>Leche Descremada 1L</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>872</v>
+        <v>2538</v>
       </c>
       <c r="F167" t="n">
-        <v>4360</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="168">
@@ -4122,21 +4122,21 @@
         <v>60</v>
       </c>
       <c r="B168" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Salsa de Tomate 500g</t>
+          <t>Pan Lactal Integral</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168" t="n">
-        <v>887</v>
+        <v>272</v>
       </c>
       <c r="F168" t="n">
-        <v>887</v>
+        <v>544</v>
       </c>
     </row>
     <row r="169">
@@ -4144,21 +4144,21 @@
         <v>60</v>
       </c>
       <c r="B169" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Desengrasante 500ml</t>
+          <t>Salsa de Tomate 500g</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>2843</v>
+        <v>887</v>
       </c>
       <c r="F169" t="n">
-        <v>8529</v>
+        <v>887</v>
       </c>
     </row>
     <row r="170">
@@ -4166,21 +4166,21 @@
         <v>60</v>
       </c>
       <c r="B170" t="n">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Leche Descremada 1L</t>
+          <t>Desodorante Aerosol</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E170" t="n">
-        <v>2538</v>
+        <v>4690</v>
       </c>
       <c r="F170" t="n">
-        <v>2538</v>
+        <v>18760</v>
       </c>
     </row>
     <row r="171">
@@ -4188,43 +4188,43 @@
         <v>60</v>
       </c>
       <c r="B171" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Pan Lactal Integral</t>
+          <t>Desengrasante 500ml</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E171" t="n">
-        <v>272</v>
+        <v>2843</v>
       </c>
       <c r="F171" t="n">
-        <v>544</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B172" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Desodorante Aerosol</t>
+          <t>Yerba Mate Suave 1kg</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E172" t="n">
-        <v>4690</v>
+        <v>3878</v>
       </c>
       <c r="F172" t="n">
-        <v>18760</v>
+        <v>11634</v>
       </c>
     </row>
     <row r="173">
@@ -4232,43 +4232,43 @@
         <v>61</v>
       </c>
       <c r="B173" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Yerba Mate Suave 1kg</t>
+          <t>Manteca 200g</t>
         </is>
       </c>
       <c r="D173" t="n">
         <v>3</v>
       </c>
       <c r="E173" t="n">
-        <v>3878</v>
+        <v>3251</v>
       </c>
       <c r="F173" t="n">
-        <v>11634</v>
+        <v>9753</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B174" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Manteca 200g</t>
+          <t>Garbanzos 500g</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E174" t="n">
-        <v>3251</v>
+        <v>2939</v>
       </c>
       <c r="F174" t="n">
-        <v>9753</v>
+        <v>11756</v>
       </c>
     </row>
     <row r="175">
@@ -4276,43 +4276,43 @@
         <v>62</v>
       </c>
       <c r="B175" t="n">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Garbanzos 500g</t>
+          <t>Mascarilla Capilar</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E175" t="n">
-        <v>2939</v>
+        <v>1581</v>
       </c>
       <c r="F175" t="n">
-        <v>11756</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B176" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Mascarilla Capilar</t>
+          <t>Pepsi 1.5L</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E176" t="n">
-        <v>1581</v>
+        <v>4973</v>
       </c>
       <c r="F176" t="n">
-        <v>4743</v>
+        <v>9946</v>
       </c>
     </row>
     <row r="177">
@@ -4342,21 +4342,21 @@
         <v>63</v>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Pepsi 1.5L</t>
+          <t>Fideos Spaghetti 500g</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E178" t="n">
-        <v>4973</v>
+        <v>745</v>
       </c>
       <c r="F178" t="n">
-        <v>9946</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="179">
@@ -4383,24 +4383,24 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B180" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Fideos Spaghetti 500g</t>
+          <t>Fanta Naranja 1.5L</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>745</v>
+        <v>2033</v>
       </c>
       <c r="F180" t="n">
-        <v>2980</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="181">
@@ -4408,43 +4408,43 @@
         <v>64</v>
       </c>
       <c r="B181" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fanta Naranja 1.5L</t>
+          <t>Aceite de Girasol 1L</t>
         </is>
       </c>
       <c r="D181" t="n">
         <v>2</v>
       </c>
       <c r="E181" t="n">
-        <v>2033</v>
+        <v>860</v>
       </c>
       <c r="F181" t="n">
-        <v>4066</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B182" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Aceite de Girasol 1L</t>
+          <t>Medialunas de Manteca</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E182" t="n">
-        <v>860</v>
+        <v>2069</v>
       </c>
       <c r="F182" t="n">
-        <v>1720</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="183">
@@ -4452,21 +4452,21 @@
         <v>65</v>
       </c>
       <c r="B183" t="n">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Empanadas Congeladas</t>
+          <t>Dulce de Leche 400g</t>
         </is>
       </c>
       <c r="D183" t="n">
         <v>4</v>
       </c>
       <c r="E183" t="n">
-        <v>4778</v>
+        <v>2559</v>
       </c>
       <c r="F183" t="n">
-        <v>19112</v>
+        <v>10236</v>
       </c>
     </row>
     <row r="184">
@@ -4474,21 +4474,21 @@
         <v>65</v>
       </c>
       <c r="B184" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Medialunas de Manteca</t>
+          <t>Mermelada de Frutilla 400g</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E184" t="n">
-        <v>2069</v>
+        <v>1584</v>
       </c>
       <c r="F184" t="n">
-        <v>6207</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="185">
@@ -4496,65 +4496,65 @@
         <v>65</v>
       </c>
       <c r="B185" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Mermelada de Frutilla 400g</t>
+          <t>Empanadas Congeladas</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E185" t="n">
-        <v>1584</v>
+        <v>4778</v>
       </c>
       <c r="F185" t="n">
-        <v>7920</v>
+        <v>19112</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B186" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Dulce de Leche 400g</t>
+          <t>Yogur Natural 200g</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E186" t="n">
-        <v>2559</v>
+        <v>4613</v>
       </c>
       <c r="F186" t="n">
-        <v>10236</v>
+        <v>13839</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B187" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Yogur Natural 200g</t>
+          <t>Energética Nitro 500ml</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E187" t="n">
-        <v>4613</v>
+        <v>4218</v>
       </c>
       <c r="F187" t="n">
-        <v>13839</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="188">
@@ -4581,46 +4581,46 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B189" t="n">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Energética Nitro 500ml</t>
+          <t>Hilo Dental</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E189" t="n">
-        <v>4218</v>
+        <v>1418</v>
       </c>
       <c r="F189" t="n">
-        <v>8436</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B190" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Hilo Dental</t>
+          <t>Whisky 750ml</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E190" t="n">
-        <v>1418</v>
+        <v>2953</v>
       </c>
       <c r="F190" t="n">
-        <v>5672</v>
+        <v>8859</v>
       </c>
     </row>
     <row r="191">
@@ -4647,24 +4647,24 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B192" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Whisky 750ml</t>
+          <t>Mermelada de Frutilla 400g</t>
         </is>
       </c>
       <c r="D192" t="n">
         <v>3</v>
       </c>
       <c r="E192" t="n">
-        <v>2953</v>
+        <v>1584</v>
       </c>
       <c r="F192" t="n">
-        <v>8859</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="193">
@@ -4713,24 +4713,24 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B195" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Mermelada de Frutilla 400g</t>
+          <t>Café Molido 250g</t>
         </is>
       </c>
       <c r="D195" t="n">
         <v>3</v>
       </c>
       <c r="E195" t="n">
-        <v>1584</v>
+        <v>2053</v>
       </c>
       <c r="F195" t="n">
-        <v>4752</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="196">
@@ -4738,21 +4738,21 @@
         <v>71</v>
       </c>
       <c r="B196" t="n">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Café Molido 250g</t>
+          <t>Hamburguesas Congeladas x4</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E196" t="n">
-        <v>2053</v>
+        <v>2420</v>
       </c>
       <c r="F196" t="n">
-        <v>6159</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="197">
@@ -4760,21 +4760,21 @@
         <v>71</v>
       </c>
       <c r="B197" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Hamburguesas Congeladas x4</t>
+          <t>Crema Dental 90g</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>2420</v>
+        <v>2512</v>
       </c>
       <c r="F197" t="n">
-        <v>9680</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="198">
@@ -4801,24 +4801,24 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B199" t="n">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Crema Dental 90g</t>
+          <t>Aceite de Girasol 1L</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E199" t="n">
-        <v>2512</v>
+        <v>860</v>
       </c>
       <c r="F199" t="n">
-        <v>2512</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="200">
@@ -4826,21 +4826,21 @@
         <v>72</v>
       </c>
       <c r="B200" t="n">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Hilo Dental</t>
+          <t>Sal Fina 500g</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E200" t="n">
-        <v>1418</v>
+        <v>1745</v>
       </c>
       <c r="F200" t="n">
-        <v>4254</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="201">
@@ -4848,43 +4848,43 @@
         <v>72</v>
       </c>
       <c r="B201" t="n">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Aceite de Girasol 1L</t>
+          <t>Hilo Dental</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E201" t="n">
-        <v>860</v>
+        <v>1418</v>
       </c>
       <c r="F201" t="n">
-        <v>3440</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B202" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Sal Fina 500g</t>
+          <t>Manteca 200g</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>1745</v>
+        <v>3251</v>
       </c>
       <c r="F202" t="n">
-        <v>3490</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="203">
@@ -4892,21 +4892,21 @@
         <v>73</v>
       </c>
       <c r="B203" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Papas Fritas Clásicas 100g</t>
+          <t>Galletitas Chocolate</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E203" t="n">
-        <v>936</v>
+        <v>1305</v>
       </c>
       <c r="F203" t="n">
-        <v>936</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="204">
@@ -4914,43 +4914,43 @@
         <v>73</v>
       </c>
       <c r="B204" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Galletitas Chocolate</t>
+          <t>Papas Fritas Clásicas 100g</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>1305</v>
+        <v>936</v>
       </c>
       <c r="F204" t="n">
-        <v>3915</v>
+        <v>936</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B205" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Manteca 200g</t>
+          <t>Leche Entera 1L</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205" t="n">
-        <v>3251</v>
+        <v>1723</v>
       </c>
       <c r="F205" t="n">
-        <v>3251</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="206">
@@ -4980,43 +4980,43 @@
         <v>74</v>
       </c>
       <c r="B207" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Leche Entera 1L</t>
+          <t>Shampoo 400ml</t>
         </is>
       </c>
       <c r="D207" t="n">
         <v>2</v>
       </c>
       <c r="E207" t="n">
-        <v>1723</v>
+        <v>1407</v>
       </c>
       <c r="F207" t="n">
-        <v>3446</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B208" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Shampoo 400ml</t>
+          <t>Pepsi 1.5L</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E208" t="n">
-        <v>1407</v>
+        <v>4973</v>
       </c>
       <c r="F208" t="n">
-        <v>2814</v>
+        <v>24865</v>
       </c>
     </row>
     <row r="209">
@@ -5043,24 +5043,24 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Pepsi 1.5L</t>
+          <t>Café Molido 250g</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E210" t="n">
-        <v>4973</v>
+        <v>2053</v>
       </c>
       <c r="F210" t="n">
-        <v>24865</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="211">
@@ -5131,24 +5131,24 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B214" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Café Molido 250g</t>
+          <t>Turrón 50g</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E214" t="n">
-        <v>2053</v>
+        <v>503</v>
       </c>
       <c r="F214" t="n">
-        <v>4106</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="215">
@@ -5156,21 +5156,21 @@
         <v>77</v>
       </c>
       <c r="B215" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Lavandina 1L</t>
+          <t>Helado Vainilla 1L</t>
         </is>
       </c>
       <c r="D215" t="n">
         <v>2</v>
       </c>
       <c r="E215" t="n">
-        <v>1664</v>
+        <v>469</v>
       </c>
       <c r="F215" t="n">
-        <v>3328</v>
+        <v>938</v>
       </c>
     </row>
     <row r="216">
@@ -5200,21 +5200,21 @@
         <v>77</v>
       </c>
       <c r="B217" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Turrón 50g</t>
+          <t>Lavandina 1L</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E217" t="n">
-        <v>503</v>
+        <v>1664</v>
       </c>
       <c r="F217" t="n">
-        <v>2515</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="218">
@@ -5241,24 +5241,24 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B219" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Helado Vainilla 1L</t>
+          <t>Queso Cremoso 500g</t>
         </is>
       </c>
       <c r="D219" t="n">
         <v>2</v>
       </c>
       <c r="E219" t="n">
-        <v>469</v>
+        <v>4834</v>
       </c>
       <c r="F219" t="n">
-        <v>938</v>
+        <v>9668</v>
       </c>
     </row>
     <row r="220">
@@ -5288,21 +5288,21 @@
         <v>78</v>
       </c>
       <c r="B221" t="n">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Hamburguesas Congeladas x4</t>
+          <t>Helado Vainilla 1L</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E221" t="n">
-        <v>2420</v>
+        <v>469</v>
       </c>
       <c r="F221" t="n">
-        <v>12100</v>
+        <v>938</v>
       </c>
     </row>
     <row r="222">
@@ -5310,21 +5310,21 @@
         <v>78</v>
       </c>
       <c r="B222" t="n">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g</t>
+          <t>Hamburguesas Congeladas x4</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E222" t="n">
-        <v>4834</v>
+        <v>2420</v>
       </c>
       <c r="F222" t="n">
-        <v>9668</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="223">
@@ -5351,24 +5351,24 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B224" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Helado Vainilla 1L</t>
+          <t>Papel Higiénico x4</t>
         </is>
       </c>
       <c r="D224" t="n">
         <v>2</v>
       </c>
       <c r="E224" t="n">
-        <v>469</v>
+        <v>2532</v>
       </c>
       <c r="F224" t="n">
-        <v>938</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="225">
@@ -5395,24 +5395,24 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B226" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Papel Higiénico x4</t>
+          <t>Maní Salado 200g</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E226" t="n">
-        <v>2532</v>
+        <v>4875</v>
       </c>
       <c r="F226" t="n">
-        <v>5064</v>
+        <v>14625</v>
       </c>
     </row>
     <row r="227">
@@ -5442,65 +5442,65 @@
         <v>80</v>
       </c>
       <c r="B228" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Maní Salado 200g</t>
+          <t>Aceite de Girasol 1L</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E228" t="n">
-        <v>4875</v>
+        <v>860</v>
       </c>
       <c r="F228" t="n">
-        <v>14625</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B229" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Aceite de Girasol 1L</t>
+          <t>Yerba Mate Intensa 1kg</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E229" t="n">
-        <v>860</v>
+        <v>4883</v>
       </c>
       <c r="F229" t="n">
-        <v>4300</v>
+        <v>9766</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B230" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Yerba Mate Intensa 1kg</t>
+          <t>Papas Fritas Clásicas 100g</t>
         </is>
       </c>
       <c r="D230" t="n">
         <v>2</v>
       </c>
       <c r="E230" t="n">
-        <v>4883</v>
+        <v>936</v>
       </c>
       <c r="F230" t="n">
-        <v>9766</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="231">
@@ -5508,21 +5508,21 @@
         <v>82</v>
       </c>
       <c r="B231" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Mermelada de Frutilla 400g</t>
+          <t>Papas Fritas Onduladas 100g</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E231" t="n">
-        <v>1584</v>
+        <v>1868</v>
       </c>
       <c r="F231" t="n">
-        <v>1584</v>
+        <v>9340</v>
       </c>
     </row>
     <row r="232">
@@ -5530,21 +5530,21 @@
         <v>82</v>
       </c>
       <c r="B232" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Papas Fritas Clásicas 100g</t>
+          <t>Mermelada de Frutilla 400g</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>936</v>
+        <v>1584</v>
       </c>
       <c r="F232" t="n">
-        <v>1872</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="233">
@@ -5552,43 +5552,43 @@
         <v>82</v>
       </c>
       <c r="B233" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Papas Fritas Onduladas 100g</t>
+          <t>Aceitunas Negras 200g</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E233" t="n">
-        <v>1868</v>
+        <v>2394</v>
       </c>
       <c r="F233" t="n">
-        <v>9340</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B234" t="n">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Aceitunas Negras 200g</t>
+          <t>Agua Mineral 500ml</t>
         </is>
       </c>
       <c r="D234" t="n">
         <v>2</v>
       </c>
       <c r="E234" t="n">
-        <v>2394</v>
+        <v>4777</v>
       </c>
       <c r="F234" t="n">
-        <v>4788</v>
+        <v>9554</v>
       </c>
     </row>
     <row r="235">
@@ -5596,21 +5596,21 @@
         <v>83</v>
       </c>
       <c r="B235" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Agua Mineral 500ml</t>
+          <t>Alfajor Triple</t>
         </is>
       </c>
       <c r="D235" t="n">
         <v>2</v>
       </c>
       <c r="E235" t="n">
-        <v>4777</v>
+        <v>1001</v>
       </c>
       <c r="F235" t="n">
-        <v>9554</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="236">
@@ -5618,21 +5618,21 @@
         <v>83</v>
       </c>
       <c r="B236" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Alfajor Triple</t>
+          <t>Sal Fina 500g</t>
         </is>
       </c>
       <c r="D236" t="n">
         <v>2</v>
       </c>
       <c r="E236" t="n">
-        <v>1001</v>
+        <v>1745</v>
       </c>
       <c r="F236" t="n">
-        <v>2002</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="237">
@@ -5659,24 +5659,24 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B238" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Sal Fina 500g</t>
+          <t>Pizza Congelada Muzzarella</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E238" t="n">
-        <v>1745</v>
+        <v>4286</v>
       </c>
       <c r="F238" t="n">
-        <v>3490</v>
+        <v>17144</v>
       </c>
     </row>
     <row r="239">
@@ -5703,24 +5703,24 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B240" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Pizza Congelada Muzzarella</t>
+          <t>Chocolate Amargo 100g</t>
         </is>
       </c>
       <c r="D240" t="n">
         <v>4</v>
       </c>
       <c r="E240" t="n">
-        <v>4286</v>
+        <v>2234</v>
       </c>
       <c r="F240" t="n">
-        <v>17144</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="241">
@@ -5728,43 +5728,43 @@
         <v>85</v>
       </c>
       <c r="B241" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Chocolate Amargo 100g</t>
+          <t>Helado de Frutilla 1L</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E241" t="n">
-        <v>2234</v>
+        <v>1981</v>
       </c>
       <c r="F241" t="n">
-        <v>8936</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B242" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Helado de Frutilla 1L</t>
+          <t>Coca Cola 1.5L</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E242" t="n">
-        <v>1981</v>
+        <v>2347</v>
       </c>
       <c r="F242" t="n">
-        <v>3962</v>
+        <v>9388</v>
       </c>
     </row>
     <row r="243">
@@ -5772,21 +5772,21 @@
         <v>86</v>
       </c>
       <c r="B243" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Cerveza Negra 1L</t>
+          <t>Té Verde 20 saquitos</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E243" t="n">
-        <v>1533</v>
+        <v>2383</v>
       </c>
       <c r="F243" t="n">
-        <v>3066</v>
+        <v>11915</v>
       </c>
     </row>
     <row r="244">
@@ -5794,21 +5794,21 @@
         <v>86</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Coca Cola 1.5L</t>
+          <t>Aceite de Girasol 1L</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E244" t="n">
-        <v>2347</v>
+        <v>860</v>
       </c>
       <c r="F244" t="n">
-        <v>9388</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="245">
@@ -5816,43 +5816,43 @@
         <v>86</v>
       </c>
       <c r="B245" t="n">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Té Verde 20 saquitos</t>
+          <t>Cerveza Negra 1L</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E245" t="n">
-        <v>2383</v>
+        <v>1533</v>
       </c>
       <c r="F245" t="n">
-        <v>11915</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B246" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Aceite de Girasol 1L</t>
+          <t>Lavandina 1L</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E246" t="n">
-        <v>860</v>
+        <v>1664</v>
       </c>
       <c r="F246" t="n">
-        <v>2580</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="247">
@@ -5860,43 +5860,43 @@
         <v>87</v>
       </c>
       <c r="B247" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Lavandina 1L</t>
+          <t>Jugo en Polvo Limón</t>
         </is>
       </c>
       <c r="D247" t="n">
         <v>2</v>
       </c>
       <c r="E247" t="n">
-        <v>1664</v>
+        <v>4090</v>
       </c>
       <c r="F247" t="n">
-        <v>3328</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B248" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Jugo en Polvo Limón</t>
+          <t>Jugo de Manzana 1L</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E248" t="n">
-        <v>4090</v>
+        <v>3269</v>
       </c>
       <c r="F248" t="n">
-        <v>8180</v>
+        <v>16345</v>
       </c>
     </row>
     <row r="249">
@@ -5904,21 +5904,21 @@
         <v>88</v>
       </c>
       <c r="B249" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Jugo de Manzana 1L</t>
+          <t>Energética Nitro 500ml</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E249" t="n">
-        <v>3269</v>
+        <v>4218</v>
       </c>
       <c r="F249" t="n">
-        <v>16345</v>
+        <v>16872</v>
       </c>
     </row>
     <row r="250">
@@ -5945,46 +5945,46 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B251" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Energética Nitro 500ml</t>
+          <t>Ron 700ml</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E251" t="n">
-        <v>4218</v>
+        <v>3876</v>
       </c>
       <c r="F251" t="n">
-        <v>16872</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B252" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Ron 700ml</t>
+          <t>Jugo de Naranja 1L</t>
         </is>
       </c>
       <c r="D252" t="n">
         <v>2</v>
       </c>
       <c r="E252" t="n">
-        <v>3876</v>
+        <v>4170</v>
       </c>
       <c r="F252" t="n">
-        <v>7752</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="253">
@@ -6011,46 +6011,46 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B254" t="n">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Jugo de Naranja 1L</t>
+          <t>Servilletas x100</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E254" t="n">
-        <v>4170</v>
+        <v>4520</v>
       </c>
       <c r="F254" t="n">
-        <v>8340</v>
+        <v>13560</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B255" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Servilletas x100</t>
+          <t>Yerba Mate Intensa 1kg</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E255" t="n">
-        <v>4520</v>
+        <v>4883</v>
       </c>
       <c r="F255" t="n">
-        <v>13560</v>
+        <v>9766</v>
       </c>
     </row>
     <row r="256">
@@ -6058,43 +6058,43 @@
         <v>92</v>
       </c>
       <c r="B256" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Yerba Mate Intensa 1kg</t>
+          <t>Salsa de Tomate 500g</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E256" t="n">
-        <v>4883</v>
+        <v>887</v>
       </c>
       <c r="F256" t="n">
-        <v>9766</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B257" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Salsa de Tomate 500g</t>
+          <t>Cerveza Negra 1L</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E257" t="n">
-        <v>887</v>
+        <v>1533</v>
       </c>
       <c r="F257" t="n">
-        <v>3548</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="258">
@@ -6124,43 +6124,43 @@
         <v>93</v>
       </c>
       <c r="B259" t="n">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Cerveza Negra 1L</t>
+          <t>Desodorante Aerosol</t>
         </is>
       </c>
       <c r="D259" t="n">
         <v>3</v>
       </c>
       <c r="E259" t="n">
-        <v>1533</v>
+        <v>4690</v>
       </c>
       <c r="F259" t="n">
-        <v>4599</v>
+        <v>14070</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B260" t="n">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Desodorante Aerosol</t>
+          <t>Galletitas Chocolate</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>4690</v>
+        <v>1305</v>
       </c>
       <c r="F260" t="n">
-        <v>14070</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="261">
@@ -6168,21 +6168,21 @@
         <v>94</v>
       </c>
       <c r="B261" t="n">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Galletitas Chocolate</t>
+          <t>Jugo en Polvo Limón</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E261" t="n">
-        <v>1305</v>
+        <v>4090</v>
       </c>
       <c r="F261" t="n">
-        <v>1305</v>
+        <v>20450</v>
       </c>
     </row>
     <row r="262">
@@ -6190,43 +6190,43 @@
         <v>94</v>
       </c>
       <c r="B262" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Jugo en Polvo Limón</t>
+          <t>Desengrasante 500ml</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E262" t="n">
-        <v>4090</v>
+        <v>2843</v>
       </c>
       <c r="F262" t="n">
-        <v>20450</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B263" t="n">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Desengrasante 500ml</t>
+          <t>Té Negro 20 saquitos</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>2843</v>
+        <v>570</v>
       </c>
       <c r="F263" t="n">
-        <v>5686</v>
+        <v>570</v>
       </c>
     </row>
     <row r="264">
@@ -6253,24 +6253,24 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B265" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Té Negro 20 saquitos</t>
+          <t>Café Molido 250g</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E265" t="n">
-        <v>570</v>
+        <v>2053</v>
       </c>
       <c r="F265" t="n">
-        <v>570</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="266">
@@ -6278,21 +6278,21 @@
         <v>96</v>
       </c>
       <c r="B266" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Aceitunas Verdes 200g</t>
+          <t>Azúcar 1kg</t>
         </is>
       </c>
       <c r="D266" t="n">
         <v>3</v>
       </c>
       <c r="E266" t="n">
-        <v>2520</v>
+        <v>727</v>
       </c>
       <c r="F266" t="n">
-        <v>7560</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="267">
@@ -6322,43 +6322,43 @@
         <v>96</v>
       </c>
       <c r="B268" t="n">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Café Molido 250g</t>
+          <t>Aceitunas Verdes 200g</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E268" t="n">
-        <v>2053</v>
+        <v>2520</v>
       </c>
       <c r="F268" t="n">
-        <v>4106</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B269" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Azúcar 1kg</t>
+          <t>Fanta Naranja 1.5L</t>
         </is>
       </c>
       <c r="D269" t="n">
         <v>3</v>
       </c>
       <c r="E269" t="n">
-        <v>727</v>
+        <v>2033</v>
       </c>
       <c r="F269" t="n">
-        <v>2181</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="270">
@@ -6366,21 +6366,21 @@
         <v>97</v>
       </c>
       <c r="B270" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Chicle Menta</t>
+          <t>Dulce de Leche 400g</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>3612</v>
+        <v>2559</v>
       </c>
       <c r="F270" t="n">
-        <v>18060</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="271">
@@ -6388,43 +6388,43 @@
         <v>97</v>
       </c>
       <c r="B271" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Dulce de Leche 400g</t>
+          <t>Chicle Menta</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E271" t="n">
-        <v>2559</v>
+        <v>3612</v>
       </c>
       <c r="F271" t="n">
-        <v>2559</v>
+        <v>18060</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B272" t="n">
+        <v>28</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Papas Fritas Clásicas 100g</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
         <v>4</v>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Fanta Naranja 1.5L</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>3</v>
-      </c>
       <c r="E272" t="n">
-        <v>2033</v>
+        <v>936</v>
       </c>
       <c r="F272" t="n">
-        <v>6099</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="273">
@@ -6432,21 +6432,21 @@
         <v>98</v>
       </c>
       <c r="B273" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Papas Fritas Clásicas 100g</t>
+          <t>Papas Fritas Onduladas 100g</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>936</v>
+        <v>1868</v>
       </c>
       <c r="F273" t="n">
-        <v>3744</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="274">
@@ -6476,65 +6476,65 @@
         <v>98</v>
       </c>
       <c r="B275" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Papas Fritas Onduladas 100g</t>
+          <t>Queso Untable 190g</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E275" t="n">
-        <v>1868</v>
+        <v>1830</v>
       </c>
       <c r="F275" t="n">
-        <v>1868</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B276" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Queso Untable 190g</t>
+          <t>Helado Chocolate 1L</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E276" t="n">
-        <v>1830</v>
+        <v>1215</v>
       </c>
       <c r="F276" t="n">
-        <v>5490</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B277" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Helado Chocolate 1L</t>
+          <t>Yerba Mate Suave 1kg</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E277" t="n">
-        <v>1215</v>
+        <v>3878</v>
       </c>
       <c r="F277" t="n">
-        <v>6075</v>
+        <v>15512</v>
       </c>
     </row>
     <row r="278">
@@ -6586,21 +6586,21 @@
         <v>100</v>
       </c>
       <c r="B280" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Caramelos Masticables</t>
+          <t>Servilletas x100</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>4752</v>
+        <v>4520</v>
       </c>
       <c r="F280" t="n">
-        <v>9504</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="281">
@@ -6608,65 +6608,65 @@
         <v>100</v>
       </c>
       <c r="B281" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Servilletas x100</t>
+          <t>Caramelos Masticables</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E281" t="n">
-        <v>4520</v>
+        <v>4752</v>
       </c>
       <c r="F281" t="n">
-        <v>4520</v>
+        <v>9504</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B282" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Yerba Mate Suave 1kg</t>
+          <t>Turrón 50g</t>
         </is>
       </c>
       <c r="D282" t="n">
         <v>4</v>
       </c>
       <c r="E282" t="n">
-        <v>3878</v>
+        <v>503</v>
       </c>
       <c r="F282" t="n">
-        <v>15512</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B283" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Turrón 50g</t>
+          <t>Dulce de Leche 400g</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E283" t="n">
-        <v>503</v>
+        <v>2559</v>
       </c>
       <c r="F283" t="n">
-        <v>2012</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="284">
@@ -6693,24 +6693,24 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B285" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Dulce de Leche 400g</t>
+          <t>Turrón 50g</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>2559</v>
+        <v>503</v>
       </c>
       <c r="F285" t="n">
-        <v>7677</v>
+        <v>503</v>
       </c>
     </row>
     <row r="286">
@@ -6718,21 +6718,21 @@
         <v>103</v>
       </c>
       <c r="B286" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Hamburguesas Congeladas x4</t>
+          <t>Salsa de Tomate 500g</t>
         </is>
       </c>
       <c r="D286" t="n">
         <v>5</v>
       </c>
       <c r="E286" t="n">
-        <v>2420</v>
+        <v>887</v>
       </c>
       <c r="F286" t="n">
-        <v>12100</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="287">
@@ -6740,21 +6740,21 @@
         <v>103</v>
       </c>
       <c r="B287" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Salsa de Tomate 500g</t>
+          <t>Fernet 750ml</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>887</v>
+        <v>4061</v>
       </c>
       <c r="F287" t="n">
-        <v>4435</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="288">
@@ -6762,43 +6762,43 @@
         <v>103</v>
       </c>
       <c r="B288" t="n">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Turrón 50g</t>
+          <t>Hamburguesas Congeladas x4</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E288" t="n">
-        <v>503</v>
+        <v>2420</v>
       </c>
       <c r="F288" t="n">
-        <v>503</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B289" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Fernet 750ml</t>
+          <t>Vino Blanco 750ml</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E289" t="n">
-        <v>4061</v>
+        <v>2684</v>
       </c>
       <c r="F289" t="n">
-        <v>4061</v>
+        <v>21472</v>
       </c>
     </row>
     <row r="290">
@@ -6825,46 +6825,46 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B291" t="n">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Vino Blanco 750ml</t>
+          <t>Fanta Naranja 1.5L</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E291" t="n">
-        <v>2684</v>
+        <v>2033</v>
       </c>
       <c r="F291" t="n">
-        <v>8052</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B292" t="n">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Vino Blanco 750ml</t>
+          <t>Té Verde 20 saquitos</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E292" t="n">
-        <v>2684</v>
+        <v>2383</v>
       </c>
       <c r="F292" t="n">
-        <v>13420</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="293">
@@ -6872,21 +6872,21 @@
         <v>105</v>
       </c>
       <c r="B293" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Té Verde 20 saquitos</t>
+          <t>Salsa de Tomate 500g</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E293" t="n">
-        <v>2383</v>
+        <v>887</v>
       </c>
       <c r="F293" t="n">
-        <v>4766</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="294">
@@ -6894,21 +6894,21 @@
         <v>105</v>
       </c>
       <c r="B294" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Fanta Naranja 1.5L</t>
+          <t>Caramelos Masticables</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E294" t="n">
-        <v>2033</v>
+        <v>4752</v>
       </c>
       <c r="F294" t="n">
-        <v>8132</v>
+        <v>9504</v>
       </c>
     </row>
     <row r="295">
@@ -6916,87 +6916,87 @@
         <v>105</v>
       </c>
       <c r="B295" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Caramelos Masticables</t>
+          <t>Aceitunas Negras 200g</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E295" t="n">
-        <v>4752</v>
+        <v>2394</v>
       </c>
       <c r="F295" t="n">
-        <v>9504</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B296" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Aceitunas Negras 200g</t>
+          <t>Caldo Concentrado Carne</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E296" t="n">
-        <v>2394</v>
+        <v>2570</v>
       </c>
       <c r="F296" t="n">
-        <v>9576</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B297" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Salsa de Tomate 500g</t>
+          <t>Agua Mineral 500ml</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E297" t="n">
-        <v>887</v>
+        <v>4777</v>
       </c>
       <c r="F297" t="n">
-        <v>4435</v>
+        <v>19108</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B298" t="n">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Caldo Concentrado Carne</t>
+          <t>Jugo de Manzana 1L</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E298" t="n">
-        <v>2570</v>
+        <v>3269</v>
       </c>
       <c r="F298" t="n">
-        <v>7710</v>
+        <v>13076</v>
       </c>
     </row>
     <row r="299">
@@ -7004,21 +7004,21 @@
         <v>107</v>
       </c>
       <c r="B299" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Jugo de Manzana 1L</t>
+          <t>Café Molido 250g</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E299" t="n">
-        <v>3269</v>
+        <v>2053</v>
       </c>
       <c r="F299" t="n">
-        <v>13076</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="300">
@@ -7026,87 +7026,87 @@
         <v>107</v>
       </c>
       <c r="B300" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Café Molido 250g</t>
+          <t>Té Negro 20 saquitos</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E300" t="n">
-        <v>2053</v>
+        <v>570</v>
       </c>
       <c r="F300" t="n">
-        <v>4106</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B301" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Té Negro 20 saquitos</t>
+          <t>Toallas Húmedas x50</t>
         </is>
       </c>
       <c r="D301" t="n">
         <v>4</v>
       </c>
       <c r="E301" t="n">
-        <v>570</v>
+        <v>2902</v>
       </c>
       <c r="F301" t="n">
-        <v>2280</v>
+        <v>11608</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B302" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Agua Mineral 500ml</t>
+          <t>Queso Rallado 150g</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>4777</v>
+        <v>3444</v>
       </c>
       <c r="F302" t="n">
-        <v>19108</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B303" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Toallas Húmedas x50</t>
+          <t>Pan Lactal Blanco</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E303" t="n">
-        <v>2902</v>
+        <v>1571</v>
       </c>
       <c r="F303" t="n">
-        <v>11608</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="304">
@@ -7114,21 +7114,21 @@
         <v>109</v>
       </c>
       <c r="B304" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Queso Rallado 150g</t>
+          <t>Arroz Largo Fino 1kg</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E304" t="n">
-        <v>3444</v>
+        <v>2979</v>
       </c>
       <c r="F304" t="n">
-        <v>3444</v>
+        <v>14895</v>
       </c>
     </row>
     <row r="305">
@@ -7155,112 +7155,112 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B306" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Pan Lactal Blanco</t>
+          <t>Jugo de Naranja 1L</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E306" t="n">
-        <v>1571</v>
+        <v>4170</v>
       </c>
       <c r="F306" t="n">
-        <v>3142</v>
+        <v>25020</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B307" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Arroz Largo Fino 1kg</t>
+          <t>Chicle Menta</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E307" t="n">
-        <v>2979</v>
+        <v>3612</v>
       </c>
       <c r="F307" t="n">
-        <v>14895</v>
+        <v>10836</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B308" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Jugo de Naranja 1L</t>
+          <t>Pan Lactal Blanco</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E308" t="n">
-        <v>4170</v>
+        <v>1571</v>
       </c>
       <c r="F308" t="n">
-        <v>4170</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B309" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Chicle Menta</t>
+          <t>Bizcochos Salados</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E309" t="n">
-        <v>3612</v>
+        <v>2380</v>
       </c>
       <c r="F309" t="n">
-        <v>10836</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B310" t="n">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Jugo de Naranja 1L</t>
+          <t>Cepillo de Dientes</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E310" t="n">
-        <v>4170</v>
+        <v>2142</v>
       </c>
       <c r="F310" t="n">
-        <v>20850</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="311">
@@ -7287,68 +7287,68 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B312" t="n">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Cepillo de Dientes</t>
+          <t>Té Verde 20 saquitos</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E312" t="n">
-        <v>2142</v>
+        <v>2383</v>
       </c>
       <c r="F312" t="n">
-        <v>6426</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B313" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Pan Lactal Blanco</t>
+          <t>Pan Lactal Integral</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E313" t="n">
-        <v>1571</v>
+        <v>272</v>
       </c>
       <c r="F313" t="n">
-        <v>3142</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B314" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Bizcochos Salados</t>
+          <t>Salsa de Tomate 500g</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E314" t="n">
-        <v>2380</v>
+        <v>887</v>
       </c>
       <c r="F314" t="n">
-        <v>9520</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="315">
@@ -7378,131 +7378,131 @@
         <v>112</v>
       </c>
       <c r="B316" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Pan Lactal Integral</t>
+          <t>Chicle Menta</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>272</v>
+        <v>3612</v>
       </c>
       <c r="F316" t="n">
-        <v>1088</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B317" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Salsa de Tomate 500g</t>
+          <t>Lavandina 1L</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E317" t="n">
-        <v>887</v>
+        <v>1664</v>
       </c>
       <c r="F317" t="n">
-        <v>4435</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B318" t="n">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Té Verde 20 saquitos</t>
+          <t>Crema Dental 90g</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E318" t="n">
-        <v>2383</v>
+        <v>2512</v>
       </c>
       <c r="F318" t="n">
-        <v>4766</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B319" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Chicle Menta</t>
+          <t>Energética Nitro 500ml</t>
         </is>
       </c>
       <c r="D319" t="n">
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>3612</v>
+        <v>4218</v>
       </c>
       <c r="F319" t="n">
-        <v>3612</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B320" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Lavandina 1L</t>
+          <t>Yerba Mate Intensa 1kg</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>1664</v>
+        <v>4883</v>
       </c>
       <c r="F320" t="n">
-        <v>3328</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B321" t="n">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Crema Dental 90g</t>
+          <t>Shampoo 400ml</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E321" t="n">
-        <v>2512</v>
+        <v>1407</v>
       </c>
       <c r="F321" t="n">
-        <v>7536</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="322">
@@ -7510,21 +7510,21 @@
         <v>114</v>
       </c>
       <c r="B322" t="n">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Energética Nitro 500ml</t>
+          <t>Queso Azul 150g</t>
         </is>
       </c>
       <c r="D322" t="n">
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>4218</v>
+        <v>1645</v>
       </c>
       <c r="F322" t="n">
-        <v>4218</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="323">
@@ -7532,87 +7532,87 @@
         <v>114</v>
       </c>
       <c r="B323" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Queso Azul 150g</t>
+          <t>Crema Dental 90g</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E323" t="n">
-        <v>1645</v>
+        <v>2512</v>
       </c>
       <c r="F323" t="n">
-        <v>1645</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B324" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Yerba Mate Intensa 1kg</t>
+          <t>Queso Cremoso 500g</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E324" t="n">
-        <v>4883</v>
+        <v>4834</v>
       </c>
       <c r="F324" t="n">
-        <v>4883</v>
+        <v>19336</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B325" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Shampoo 400ml</t>
+          <t>Queso Azul 150g</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E325" t="n">
-        <v>1407</v>
+        <v>1645</v>
       </c>
       <c r="F325" t="n">
-        <v>7035</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B326" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Crema Dental 90g</t>
+          <t>Mascarilla Capilar</t>
         </is>
       </c>
       <c r="D326" t="n">
         <v>4</v>
       </c>
       <c r="E326" t="n">
-        <v>2512</v>
+        <v>1581</v>
       </c>
       <c r="F326" t="n">
-        <v>10048</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="327">
@@ -7620,87 +7620,87 @@
         <v>115</v>
       </c>
       <c r="B327" t="n">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Queso Cremoso 500g</t>
+          <t>Limpiavidrios 500ml</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E327" t="n">
-        <v>4834</v>
+        <v>872</v>
       </c>
       <c r="F327" t="n">
-        <v>19336</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B328" t="n">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Limpiavidrios 500ml</t>
+          <t>Barrita de Cereal 30g</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E328" t="n">
-        <v>872</v>
+        <v>4430</v>
       </c>
       <c r="F328" t="n">
-        <v>4360</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B329" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Mascarilla Capilar</t>
+          <t>Vinagre de Alcohol 500ml</t>
         </is>
       </c>
       <c r="D329" t="n">
         <v>4</v>
       </c>
       <c r="E329" t="n">
-        <v>1581</v>
+        <v>1195</v>
       </c>
       <c r="F329" t="n">
-        <v>6324</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B330" t="n">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Queso Azul 150g</t>
+          <t>Jabón de Tocador</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E330" t="n">
-        <v>1645</v>
+        <v>1592</v>
       </c>
       <c r="F330" t="n">
-        <v>3290</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="331">
@@ -7730,131 +7730,131 @@
         <v>116</v>
       </c>
       <c r="B332" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Barrita de Cereal 30g</t>
+          <t>Toallas Húmedas x50</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E332" t="n">
-        <v>4430</v>
+        <v>2902</v>
       </c>
       <c r="F332" t="n">
-        <v>8860</v>
+        <v>11608</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B333" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Vinagre de Alcohol 500ml</t>
+          <t>Miel Pura 250g</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E333" t="n">
-        <v>1195</v>
+        <v>4982</v>
       </c>
       <c r="F333" t="n">
-        <v>4780</v>
+        <v>9964</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B334" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Jabón de Tocador</t>
+          <t>Vino Tinto Malbec 750ml</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E334" t="n">
-        <v>1592</v>
+        <v>4719</v>
       </c>
       <c r="F334" t="n">
-        <v>7960</v>
+        <v>18876</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B335" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Toallas Húmedas x50</t>
+          <t>Azúcar 1kg</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E335" t="n">
-        <v>2902</v>
+        <v>727</v>
       </c>
       <c r="F335" t="n">
-        <v>11608</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B336" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Vino Tinto Malbec 750ml</t>
+          <t>Vino Blanco 750ml</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E336" t="n">
-        <v>4719</v>
+        <v>2684</v>
       </c>
       <c r="F336" t="n">
-        <v>18876</v>
+        <v>21472</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B337" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Miel Pura 250g</t>
+          <t>Fernet 750ml</t>
         </is>
       </c>
       <c r="D337" t="n">
         <v>2</v>
       </c>
       <c r="E337" t="n">
-        <v>4982</v>
+        <v>4061</v>
       </c>
       <c r="F337" t="n">
-        <v>9964</v>
+        <v>8122</v>
       </c>
     </row>
     <row r="338">
@@ -7862,152 +7862,64 @@
         <v>118</v>
       </c>
       <c r="B338" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Vino Blanco 750ml</t>
+          <t>Cepillo de Dientes</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E338" t="n">
-        <v>2684</v>
+        <v>2142</v>
       </c>
       <c r="F338" t="n">
-        <v>13420</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B339" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Vino Blanco 750ml</t>
+          <t>Fideos Spaghetti 500g</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E339" t="n">
-        <v>2684</v>
+        <v>745</v>
       </c>
       <c r="F339" t="n">
-        <v>8052</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B340" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Fernet 750ml</t>
+          <t>Pan Lactal Blanco</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E340" t="n">
-        <v>4061</v>
+        <v>1571</v>
       </c>
       <c r="F340" t="n">
-        <v>8122</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>118</v>
-      </c>
-      <c r="B341" t="n">
-        <v>93</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>Cepillo de Dientes</t>
-        </is>
-      </c>
-      <c r="D341" t="n">
-        <v>3</v>
-      </c>
-      <c r="E341" t="n">
-        <v>2142</v>
-      </c>
-      <c r="F341" t="n">
-        <v>6426</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>118</v>
-      </c>
-      <c r="B342" t="n">
-        <v>50</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>Azúcar 1kg</t>
-        </is>
-      </c>
-      <c r="D342" t="n">
-        <v>2</v>
-      </c>
-      <c r="E342" t="n">
-        <v>727</v>
-      </c>
-      <c r="F342" t="n">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>119</v>
-      </c>
-      <c r="B343" t="n">
-        <v>45</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Fideos Spaghetti 500g</t>
-        </is>
-      </c>
-      <c r="D343" t="n">
-        <v>5</v>
-      </c>
-      <c r="E343" t="n">
-        <v>745</v>
-      </c>
-      <c r="F343" t="n">
-        <v>3725</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>120</v>
-      </c>
-      <c r="B344" t="n">
-        <v>20</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>Pan Lactal Blanco</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>5</v>
-      </c>
-      <c r="E344" t="n">
-        <v>1571</v>
-      </c>
-      <c r="F344" t="n">
         <v>7855</v>
       </c>
     </row>
